--- a/src/main/java/com/testdata/Ecommerce (1).xlsx
+++ b/src/main/java/com/testdata/Ecommerce (1).xlsx
@@ -4,9 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Registration" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="signup" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Sheet1" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Login" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="invalid" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Login" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -119,10 +118,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -389,20 +384,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="23.0"/>
     <col customWidth="1" min="2" max="2" width="17.88"/>
@@ -437,7 +418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/src/main/java/com/testdata/Ecommerce (1).xlsx
+++ b/src/main/java/com/testdata/Ecommerce (1).xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView activeTab="2"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Registration" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="invalid" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Login" sheetId="3" r:id="rId6"/>
+    <sheet name="Registration" sheetId="1" r:id="rId4"/>
+    <sheet name="invalid" sheetId="2" r:id="rId5"/>
+    <sheet name="Login" sheetId="3" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr fullPrecision="1" calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16" count="19">
   <si>
     <t>Firstname</t>
   </si>
@@ -21,7 +24,7 @@
     <t>Lastname</t>
   </si>
   <si>
-    <t xml:space="preserve">Email </t>
+    <t>Email </t>
   </si>
   <si>
     <t>Phone number</t>
@@ -66,59 +69,117 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <fonts count="7">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2B579A"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF2B579A"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E7E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF2B579A"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF2B579A"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ConditionalFormatStyle" xfId="1"/>
+    <cellStyle name="HeaderStyle" xfId="2"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -316,21 +377,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.63" customHeight="true" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="14.25"/>
-    <col customWidth="1" min="3" max="4" width="23.25"/>
-    <col customWidth="1" min="5" max="6" width="16.63"/>
+    <col min="2" max="2" width="14.16015625" customWidth="1"/>
+    <col min="3" max="4" width="23.16015625" customWidth="1"/>
+    <col min="5" max="6" width="16.66015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -350,7 +414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -361,35 +425,39 @@
         <v>8</v>
       </c>
       <c r="D2" s="1">
-        <v>9.945454545E9</v>
+        <v>9945454545</v>
       </c>
       <c r="E2" s="1">
-        <v>1.23456789E8</v>
+        <v>123456789</v>
       </c>
       <c r="F2" s="1">
-        <v>1.23456789E8</v>
+        <v>123456789</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.63" customHeight="true" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.0"/>
-    <col customWidth="1" min="2" max="2" width="17.88"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -397,7 +465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -405,7 +473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -414,25 +482,29 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="normal" tabSelected="1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.63" customHeight="true" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.25"/>
-    <col customWidth="1" min="2" max="2" width="18.13"/>
+    <col min="1" max="1" width="23.16015625" customWidth="1"/>
+    <col min="2" max="2" width="18.16015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -440,23 +512,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>1.23456789E8</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1">
-        <v>1.23456789E8</v>
+        <v>123456789</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
 </worksheet>
 </file>